--- a/Net4.5/MIS.Web/MIS.Web/Template/员工考核录入表格模板.xlsx
+++ b/Net4.5/MIS.Web/MIS.Web/Template/员工考核录入表格模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="考核记录" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>序号</t>
   </si>
@@ -31,6 +31,12 @@
     <t>部门</t>
   </si>
   <si>
+    <t>绩效得分</t>
+  </si>
+  <si>
+    <t>效益得分</t>
+  </si>
+  <si>
     <t>应出勤</t>
   </si>
   <si>
@@ -61,13 +67,25 @@
     <t>使用年假</t>
   </si>
   <si>
-    <t>绩效得分</t>
-  </si>
-  <si>
-    <t>效益得分</t>
-  </si>
-  <si>
     <t>录入时间</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>z001122</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>行政部</t>
+  </si>
+  <si>
+    <t>未审核</t>
   </si>
 </sst>
 </file>
@@ -77,10 +95,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,8 +107,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,35 +145,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +165,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -148,7 +181,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,38 +197,59 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,44 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,25 +272,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,25 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,49 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,73 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +466,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +516,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,181 +558,164 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,96 +768,98 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,27 +872,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S2" totalsRowShown="0">
+  <autoFilter ref="A1:S2"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="序号" dataDxfId="0"/>
     <tableColumn id="2" name="月份" dataDxfId="1"/>
     <tableColumn id="3" name="工号" dataDxfId="2"/>
     <tableColumn id="4" name="姓名" dataDxfId="3"/>
     <tableColumn id="5" name="部门" dataDxfId="4"/>
-    <tableColumn id="6" name="应出勤" dataDxfId="5"/>
-    <tableColumn id="7" name="实出勤" dataDxfId="6"/>
-    <tableColumn id="8" name="平日加班" dataDxfId="7"/>
-    <tableColumn id="9" name="法定节假日加班" dataDxfId="8"/>
-    <tableColumn id="10" name="迟到" dataDxfId="9"/>
-    <tableColumn id="11" name="早退" dataDxfId="10"/>
-    <tableColumn id="12" name="旷工" dataDxfId="11"/>
-    <tableColumn id="13" name="事假" dataDxfId="12"/>
-    <tableColumn id="14" name="病假" dataDxfId="13"/>
-    <tableColumn id="15" name="使用年假" dataDxfId="14"/>
-    <tableColumn id="16" name="绩效得分" dataDxfId="15"/>
-    <tableColumn id="17" name="效益得分" dataDxfId="16"/>
+    <tableColumn id="6" name="绩效得分" dataDxfId="5"/>
+    <tableColumn id="7" name="效益得分" dataDxfId="6"/>
+    <tableColumn id="8" name="应出勤" dataDxfId="7"/>
+    <tableColumn id="9" name="实出勤" dataDxfId="8"/>
+    <tableColumn id="10" name="平日加班" dataDxfId="9"/>
+    <tableColumn id="11" name="法定节假日加班" dataDxfId="10"/>
+    <tableColumn id="12" name="迟到" dataDxfId="11"/>
+    <tableColumn id="13" name="早退" dataDxfId="12"/>
+    <tableColumn id="14" name="旷工" dataDxfId="13"/>
+    <tableColumn id="15" name="事假" dataDxfId="14"/>
+    <tableColumn id="16" name="病假" dataDxfId="15"/>
+    <tableColumn id="17" name="使用年假" dataDxfId="16"/>
     <tableColumn id="18" name="录入时间" dataDxfId="17"/>
+    <tableColumn id="19" name="状态" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,23 +1184,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="5" width="9.16666666666667" customWidth="1"/>
-    <col min="6" max="7" width="11.4666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.775" customWidth="1"/>
-    <col min="9" max="9" width="20.6833333333333" customWidth="1"/>
-    <col min="10" max="14" width="9.16666666666667" customWidth="1"/>
-    <col min="15" max="18" width="13.775" customWidth="1"/>
+    <col min="6" max="7" width="13.775" customWidth="1"/>
+    <col min="8" max="9" width="11.4666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.775" customWidth="1"/>
+    <col min="11" max="11" width="20.6833333333333" customWidth="1"/>
+    <col min="12" max="16" width="9.16666666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.775" customWidth="1"/>
+    <col min="18" max="18" width="17.2416666666667" customWidth="1"/>
+    <col min="19" max="19" width="9.16666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1258,75 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43445.7877314815</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576">
+      <formula1>"未审核,已审核"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
